--- a/Code/Results/Cases/Case_1_190/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_190/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.246630629126194</v>
+        <v>7.76548733449558</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.16423168626013</v>
+        <v>3.332866452911979</v>
       </c>
       <c r="E2">
-        <v>30.93755439804214</v>
+        <v>16.7405582290129</v>
       </c>
       <c r="F2">
-        <v>24.82253004437598</v>
+        <v>18.35869918359322</v>
       </c>
       <c r="G2">
-        <v>36.79505295082205</v>
+        <v>21.97987378217738</v>
       </c>
       <c r="H2">
-        <v>9.372623469429769</v>
+        <v>10.62994996385521</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.23732044346314</v>
+        <v>18.20530214750648</v>
       </c>
       <c r="O2">
-        <v>19.00990756905212</v>
+        <v>15.51357751095988</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.893046346234853</v>
+        <v>7.690488708080919</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.122519041038383</v>
+        <v>3.331906116542084</v>
       </c>
       <c r="E3">
-        <v>28.65423867999858</v>
+        <v>15.77358072534926</v>
       </c>
       <c r="F3">
-        <v>23.05394107770013</v>
+        <v>17.85750361967092</v>
       </c>
       <c r="G3">
-        <v>34.15511877210735</v>
+        <v>20.88400046637141</v>
       </c>
       <c r="H3">
-        <v>8.908803315204798</v>
+        <v>10.56398091616973</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.40490238992828</v>
+        <v>17.93039231733595</v>
       </c>
       <c r="O3">
-        <v>17.64289383230128</v>
+        <v>15.21194444154728</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.669007590712734</v>
+        <v>7.645832371061269</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.097533728375473</v>
+        <v>3.331667210034011</v>
       </c>
       <c r="E4">
-        <v>27.189849271831</v>
+        <v>15.15375536400619</v>
       </c>
       <c r="F4">
-        <v>21.91455764494753</v>
+        <v>17.54855801098144</v>
       </c>
       <c r="G4">
-        <v>32.45436817138768</v>
+        <v>20.18742174270481</v>
       </c>
       <c r="H4">
-        <v>8.619582511969091</v>
+        <v>10.52596340044021</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.87747365336571</v>
+        <v>17.76180298315366</v>
       </c>
       <c r="O4">
-        <v>16.76129836844328</v>
+        <v>15.02856969616999</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.576098376390302</v>
+        <v>7.62800595514101</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.087506276006343</v>
+        <v>3.33165832644058</v>
       </c>
       <c r="E5">
-        <v>26.57696618080704</v>
+        <v>14.89487218464948</v>
       </c>
       <c r="F5">
-        <v>21.43668347917321</v>
+        <v>17.4225731203034</v>
       </c>
       <c r="G5">
-        <v>31.74099577495946</v>
+        <v>19.89801699846327</v>
       </c>
       <c r="H5">
-        <v>8.500738049774863</v>
+        <v>10.51110920613297</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.65875149195256</v>
+        <v>17.69323820309472</v>
       </c>
       <c r="O5">
-        <v>16.39126991226238</v>
+        <v>14.9544145422213</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.560577813400377</v>
+        <v>7.625068927627218</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.085850470997601</v>
+        <v>3.331662202569909</v>
       </c>
       <c r="E6">
-        <v>26.47421094918229</v>
+        <v>14.85151310981644</v>
       </c>
       <c r="F6">
-        <v>21.356510483231</v>
+        <v>17.40165469098864</v>
       </c>
       <c r="G6">
-        <v>31.62130859795601</v>
+        <v>19.84964027438417</v>
       </c>
       <c r="H6">
-        <v>8.480948870500052</v>
+        <v>10.50868157673871</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.62221383307329</v>
+        <v>17.68186382811895</v>
       </c>
       <c r="O6">
-        <v>16.32917232608425</v>
+        <v>14.94213892303543</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.66776091961179</v>
+        <v>7.645590426598107</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.097397873411625</v>
+        <v>3.331666731627296</v>
       </c>
       <c r="E7">
-        <v>27.18164958784453</v>
+        <v>15.1502890936753</v>
       </c>
       <c r="F7">
-        <v>21.9081679360316</v>
+        <v>17.54685899359088</v>
       </c>
       <c r="G7">
-        <v>32.44482986447206</v>
+        <v>20.18354057289569</v>
       </c>
       <c r="H7">
-        <v>8.617983529212049</v>
+        <v>10.52576047143519</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.87453879493523</v>
+        <v>17.76087762817026</v>
       </c>
       <c r="O7">
-        <v>16.75635183448619</v>
+        <v>15.02756715204569</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.126227888204645</v>
+        <v>7.739351513268095</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.149716748705501</v>
+        <v>3.332462701585339</v>
       </c>
       <c r="E8">
-        <v>30.16295003140156</v>
+        <v>16.41270293448153</v>
       </c>
       <c r="F8">
-        <v>24.22373356801237</v>
+        <v>18.18626524397519</v>
       </c>
       <c r="G8">
-        <v>35.90121885208334</v>
+        <v>21.60716863689971</v>
       </c>
       <c r="H8">
-        <v>9.213688181180581</v>
+        <v>10.60669544107147</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.95386594323659</v>
+        <v>18.11052099476146</v>
       </c>
       <c r="O8">
-        <v>18.54723507259014</v>
+        <v>15.4092615210346</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.965389323045737</v>
+        <v>7.9333151054759</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.257524162052338</v>
+        <v>3.336794265068324</v>
       </c>
       <c r="E9">
-        <v>35.53565962533058</v>
+        <v>18.83526645892429</v>
       </c>
       <c r="F9">
-        <v>28.34745798099233</v>
+        <v>19.42152583551522</v>
       </c>
       <c r="G9">
-        <v>42.05837224899962</v>
+        <v>24.19549305282739</v>
       </c>
       <c r="H9">
-        <v>10.41351275112119</v>
+        <v>10.78454097625027</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.92909527242057</v>
+        <v>18.79413998554022</v>
       </c>
       <c r="O9">
-        <v>21.73142598679812</v>
+        <v>16.16742811790309</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.566996749135578</v>
+        <v>8.080666255167973</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.340424227385288</v>
+        <v>3.341648870266802</v>
       </c>
       <c r="E10">
-        <v>39.22824871429455</v>
+        <v>20.51580639411464</v>
       </c>
       <c r="F10">
-        <v>31.13496510759985</v>
+        <v>20.30649208104569</v>
       </c>
       <c r="G10">
-        <v>46.22402828101351</v>
+        <v>25.95640391697248</v>
       </c>
       <c r="H10">
-        <v>11.44107768786063</v>
+        <v>10.92598972804872</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>23.28076484706837</v>
+        <v>19.2903645072747</v>
       </c>
       <c r="O10">
-        <v>23.88264235483553</v>
+        <v>16.72400890826519</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.868737088010029</v>
+        <v>8.14846916618764</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.379119748423872</v>
+        <v>3.344216520351163</v>
       </c>
       <c r="E11">
-        <v>40.8616418252689</v>
+        <v>21.23749084471423</v>
       </c>
       <c r="F11">
-        <v>32.35376212928514</v>
+        <v>20.70207008789831</v>
       </c>
       <c r="G11">
-        <v>48.04676179419457</v>
+        <v>26.72430725654529</v>
       </c>
       <c r="H11">
-        <v>11.89110708767762</v>
+        <v>10.99247610726923</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>23.8718647234012</v>
+        <v>19.51383106981896</v>
       </c>
       <c r="O11">
-        <v>24.82335668339965</v>
+        <v>16.97584131324049</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.980484619735533</v>
+        <v>8.17423166240809</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.393935072878467</v>
+        <v>3.345240104828057</v>
       </c>
       <c r="E12">
-        <v>41.47436071722512</v>
+        <v>21.50465745367265</v>
       </c>
       <c r="F12">
-        <v>32.80852459811584</v>
+        <v>20.85070168403498</v>
       </c>
       <c r="G12">
-        <v>48.72711522221345</v>
+        <v>27.01015662864143</v>
       </c>
       <c r="H12">
-        <v>12.05913950096484</v>
+        <v>11.01794236505454</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>24.09213181238057</v>
+        <v>19.59804885977592</v>
       </c>
       <c r="O12">
-        <v>25.17441048528583</v>
+        <v>17.07090818264913</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.956529331384093</v>
+        <v>8.168679758780518</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.390736723125536</v>
+        <v>3.345017383736601</v>
       </c>
       <c r="E13">
-        <v>41.34264413774066</v>
+        <v>21.44738995832763</v>
       </c>
       <c r="F13">
-        <v>32.71087897672273</v>
+        <v>20.81874541673822</v>
       </c>
       <c r="G13">
-        <v>48.5810192726109</v>
+        <v>26.94881594057337</v>
       </c>
       <c r="H13">
-        <v>12.02305462610471</v>
+        <v>11.01244518410014</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>24.04485425157802</v>
+        <v>19.57993023154881</v>
       </c>
       <c r="O13">
-        <v>25.09903017264224</v>
+        <v>17.05044857741606</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.877980916326745</v>
+        <v>8.150587055476443</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.380335224761629</v>
+        <v>3.344299706018385</v>
       </c>
       <c r="E14">
-        <v>40.91216166863567</v>
+        <v>21.25959324810564</v>
       </c>
       <c r="F14">
-        <v>32.39130943078842</v>
+        <v>20.71432231239457</v>
       </c>
       <c r="G14">
-        <v>48.10292962939938</v>
+        <v>26.74792412138484</v>
       </c>
       <c r="H14">
-        <v>11.90497823817983</v>
+        <v>10.99456554138558</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>23.89005854492981</v>
+        <v>19.52076825227033</v>
       </c>
       <c r="O14">
-        <v>24.85234010307485</v>
+        <v>16.98366902686251</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.829540801259917</v>
+        <v>8.139515373066374</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.373985838327866</v>
+        <v>3.343866772780879</v>
       </c>
       <c r="E15">
-        <v>40.6477495681749</v>
+        <v>21.14376642488964</v>
       </c>
       <c r="F15">
-        <v>32.19469231260057</v>
+        <v>20.65020392082526</v>
       </c>
       <c r="G15">
-        <v>47.80881614164685</v>
+        <v>26.62422428068378</v>
       </c>
       <c r="H15">
-        <v>11.83234646593343</v>
+        <v>10.98365086186756</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>23.79477278991585</v>
+        <v>19.48447494387068</v>
       </c>
       <c r="O15">
-        <v>24.70057016333872</v>
+        <v>16.94272308504471</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.546924303489439</v>
+        <v>8.076248655077</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.337916823552748</v>
+        <v>3.341488264673342</v>
       </c>
       <c r="E16">
-        <v>39.12063977260129</v>
+        <v>20.46778435323411</v>
       </c>
       <c r="F16">
-        <v>31.05434852460085</v>
+        <v>20.28048541154647</v>
       </c>
       <c r="G16">
-        <v>46.10349687584603</v>
+        <v>25.9055371870232</v>
       </c>
       <c r="H16">
-        <v>11.41132664437745</v>
+        <v>10.921686192136</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>23.24164318204574</v>
+        <v>19.27570805562915</v>
       </c>
       <c r="O16">
-        <v>23.82042474532411</v>
+        <v>16.70751495472316</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.376498625130704</v>
+        <v>8.037617191288184</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.316054643615799</v>
+        <v>3.340120871658005</v>
       </c>
       <c r="E17">
-        <v>38.17249920501028</v>
+        <v>20.04215383634661</v>
       </c>
       <c r="F17">
-        <v>30.34237880283517</v>
+        <v>20.05176529754235</v>
       </c>
       <c r="G17">
-        <v>45.03917876416303</v>
+        <v>25.45602378938278</v>
       </c>
       <c r="H17">
-        <v>11.14866417013891</v>
+        <v>10.88420815208812</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.89611080376316</v>
+        <v>19.14699881872644</v>
       </c>
       <c r="O17">
-        <v>23.27096516431292</v>
+        <v>16.56280069720605</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.291034355919692</v>
+        <v>8.01547150347373</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.303571160301904</v>
+        <v>3.339368223788723</v>
       </c>
       <c r="E18">
-        <v>37.62272973925781</v>
+        <v>19.79331164051828</v>
       </c>
       <c r="F18">
-        <v>29.92821543463624</v>
+        <v>19.91956150706805</v>
       </c>
       <c r="G18">
-        <v>44.42017666902684</v>
+        <v>25.19436406922753</v>
       </c>
       <c r="H18">
-        <v>10.99594023617805</v>
+        <v>10.86285440835427</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.69513864179611</v>
+        <v>19.07275961144546</v>
       </c>
       <c r="O18">
-        <v>22.95134644814263</v>
+        <v>16.47944270756341</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.261940017627072</v>
+        <v>8.00798681698601</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.299359566841304</v>
+        <v>3.339119213877821</v>
       </c>
       <c r="E19">
-        <v>37.43580326788921</v>
+        <v>19.70836458320055</v>
       </c>
       <c r="F19">
-        <v>29.78717810882446</v>
+        <v>19.87469300417116</v>
       </c>
       <c r="G19">
-        <v>44.20940485025159</v>
+        <v>25.10524197005105</v>
       </c>
       <c r="H19">
-        <v>10.94394421608378</v>
+        <v>10.85565975489246</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.62671469075648</v>
+        <v>19.04759001474569</v>
       </c>
       <c r="O19">
-        <v>22.84250567085699</v>
+        <v>16.45120130807218</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.392240843817188</v>
+        <v>8.041722081226251</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.318372353107926</v>
+        <v>3.340262933356617</v>
       </c>
       <c r="E20">
-        <v>38.27388244696787</v>
+        <v>20.08787984548762</v>
       </c>
       <c r="F20">
-        <v>30.41864906823037</v>
+        <v>20.07618141573258</v>
       </c>
       <c r="G20">
-        <v>45.15318108972121</v>
+        <v>25.50419863862297</v>
       </c>
       <c r="H20">
-        <v>11.17679472735958</v>
+        <v>10.88817691407267</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.9331253841244</v>
+        <v>19.16072234871258</v>
       </c>
       <c r="O20">
-        <v>23.32982513974612</v>
+        <v>16.57821917134406</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.901120589404233</v>
+        <v>8.155899150234847</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.383385801990081</v>
+        <v>3.344509117089792</v>
       </c>
       <c r="E21">
-        <v>41.03875504055195</v>
+        <v>21.31491949976721</v>
       </c>
       <c r="F21">
-        <v>32.48535575957733</v>
+        <v>20.74502673075174</v>
       </c>
       <c r="G21">
-        <v>48.24361975219639</v>
+        <v>26.80706618550222</v>
       </c>
       <c r="H21">
-        <v>11.93972378429002</v>
+        <v>10.99980952428328</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>23.93562375281779</v>
+        <v>19.53815713259456</v>
       </c>
       <c r="O21">
-        <v>24.92493703555136</v>
+        <v>17.00329262939363</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.221723313091539</v>
+        <v>8.23101661654694</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.426835124663548</v>
+        <v>3.347582896093313</v>
       </c>
       <c r="E22">
-        <v>42.81238247140254</v>
+        <v>22.08120714169245</v>
       </c>
       <c r="F22">
-        <v>33.79678858749871</v>
+        <v>21.17530009767951</v>
       </c>
       <c r="G22">
-        <v>50.20612434330766</v>
+        <v>27.62971804028947</v>
       </c>
       <c r="H22">
-        <v>12.42451617693132</v>
+        <v>11.07444526050048</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>24.56995441742194</v>
+        <v>19.78244317294325</v>
       </c>
       <c r="O22">
-        <v>25.9374278696955</v>
+        <v>17.27933077334015</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.051945609603294</v>
+        <v>8.190887495043029</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.403549218514468</v>
+        <v>3.345915169710971</v>
       </c>
       <c r="E23">
-        <v>41.86849899083173</v>
+        <v>21.67547574966455</v>
       </c>
       <c r="F23">
-        <v>33.10033093101019</v>
+        <v>20.94633133725022</v>
       </c>
       <c r="G23">
-        <v>49.16375132086875</v>
+        <v>27.1933421629898</v>
       </c>
       <c r="H23">
-        <v>12.16699370116517</v>
+        <v>11.03446353276845</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>24.23335248413411</v>
+        <v>19.65230661567175</v>
       </c>
       <c r="O23">
-        <v>25.39968849520768</v>
+        <v>17.13219820154773</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.385126792662914</v>
+        <v>8.039866059139561</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.317324252194473</v>
+        <v>3.340198602956081</v>
       </c>
       <c r="E24">
-        <v>38.22806169476726</v>
+        <v>20.06722001980257</v>
       </c>
       <c r="F24">
-        <v>30.38418238760744</v>
+        <v>20.06514508651015</v>
       </c>
       <c r="G24">
-        <v>45.10166282666621</v>
+        <v>25.48242883184161</v>
       </c>
       <c r="H24">
-        <v>11.16408225555713</v>
+        <v>10.8863820345403</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.91639831010818</v>
+        <v>19.15451869034855</v>
       </c>
       <c r="O24">
-        <v>23.30322617409375</v>
+        <v>16.57124896922864</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.74539239136177</v>
+        <v>7.879895846024697</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.227758591924818</v>
+        <v>3.33532750643249</v>
       </c>
       <c r="E25">
-        <v>34.12963562220383</v>
+        <v>18.1782030260668</v>
       </c>
       <c r="F25">
-        <v>27.27540407321641</v>
+        <v>19.09055749939816</v>
       </c>
       <c r="G25">
-        <v>40.45721875450876</v>
+        <v>23.51897299350291</v>
       </c>
       <c r="H25">
-        <v>10.041757576016</v>
+        <v>10.73446794358163</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.41138112085526</v>
+        <v>18.60992361498234</v>
       </c>
       <c r="O25">
-        <v>20.90398045560058</v>
+        <v>15.96195547730649</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_190/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_190/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.76548733449558</v>
+        <v>7.246630629126208</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.332866452911979</v>
+        <v>2.16423168626013</v>
       </c>
       <c r="E2">
-        <v>16.7405582290129</v>
+        <v>30.93755439804213</v>
       </c>
       <c r="F2">
-        <v>18.35869918359322</v>
+        <v>24.82253004437597</v>
       </c>
       <c r="G2">
-        <v>21.97987378217738</v>
+        <v>36.79505295082199</v>
       </c>
       <c r="H2">
-        <v>10.62994996385521</v>
+        <v>9.372623469429763</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.20530214750648</v>
+        <v>20.23732044346318</v>
       </c>
       <c r="O2">
-        <v>15.51357751095988</v>
+        <v>19.00990756905208</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.690488708080919</v>
+        <v>6.893046346234883</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.331906116542084</v>
+        <v>2.122519041038498</v>
       </c>
       <c r="E3">
-        <v>15.77358072534926</v>
+        <v>28.65423867999851</v>
       </c>
       <c r="F3">
-        <v>17.85750361967092</v>
+        <v>23.05394107770008</v>
       </c>
       <c r="G3">
-        <v>20.88400046637141</v>
+        <v>34.15511877210732</v>
       </c>
       <c r="H3">
-        <v>10.56398091616973</v>
+        <v>8.908803315204793</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.93039231733595</v>
+        <v>19.40490238992826</v>
       </c>
       <c r="O3">
-        <v>15.21194444154728</v>
+        <v>17.64289383230128</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.645832371061269</v>
+        <v>6.669007590712734</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.331667210034011</v>
+        <v>2.097533728375469</v>
       </c>
       <c r="E4">
-        <v>15.15375536400619</v>
+        <v>27.18984927183106</v>
       </c>
       <c r="F4">
-        <v>17.54855801098144</v>
+        <v>21.91455764494751</v>
       </c>
       <c r="G4">
-        <v>20.18742174270481</v>
+        <v>32.45436817138769</v>
       </c>
       <c r="H4">
-        <v>10.52596340044021</v>
+        <v>8.619582511969091</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.76180298315366</v>
+        <v>18.87747365336572</v>
       </c>
       <c r="O4">
-        <v>15.02856969616999</v>
+        <v>16.76129836844328</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.62800595514101</v>
+        <v>6.57609837639032</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.33165832644058</v>
+        <v>2.087506276006406</v>
       </c>
       <c r="E5">
-        <v>14.89487218464948</v>
+        <v>26.57696618080699</v>
       </c>
       <c r="F5">
-        <v>17.4225731203034</v>
+        <v>21.43668347917318</v>
       </c>
       <c r="G5">
-        <v>19.89801699846327</v>
+        <v>31.74099577495942</v>
       </c>
       <c r="H5">
-        <v>10.51110920613297</v>
+        <v>8.500738049774901</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.69323820309472</v>
+        <v>18.65875149195254</v>
       </c>
       <c r="O5">
-        <v>14.9544145422213</v>
+        <v>16.39126991226236</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.625068927627218</v>
+        <v>6.560577813400345</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.331662202569909</v>
+        <v>2.085850470997481</v>
       </c>
       <c r="E6">
-        <v>14.85151310981644</v>
+        <v>26.47421094918228</v>
       </c>
       <c r="F6">
-        <v>17.40165469098864</v>
+        <v>21.35651048323104</v>
       </c>
       <c r="G6">
-        <v>19.84964027438417</v>
+        <v>31.62130859795608</v>
       </c>
       <c r="H6">
-        <v>10.50868157673871</v>
+        <v>8.480948870500084</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.68186382811895</v>
+        <v>18.62221383307329</v>
       </c>
       <c r="O6">
-        <v>14.94213892303543</v>
+        <v>16.32917232608428</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.645590426598107</v>
+        <v>6.66776091961189</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.331666731627296</v>
+        <v>2.097397873411616</v>
       </c>
       <c r="E7">
-        <v>15.1502890936753</v>
+        <v>27.18164958784457</v>
       </c>
       <c r="F7">
-        <v>17.54685899359088</v>
+        <v>21.90816793603158</v>
       </c>
       <c r="G7">
-        <v>20.18354057289569</v>
+        <v>32.44482986447203</v>
       </c>
       <c r="H7">
-        <v>10.52576047143519</v>
+        <v>8.61798352921204</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.76087762817026</v>
+        <v>18.87453879493521</v>
       </c>
       <c r="O7">
-        <v>15.02756715204569</v>
+        <v>16.75635183448618</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.739351513268095</v>
+        <v>7.126227888204677</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.332462701585339</v>
+        <v>2.149716748705492</v>
       </c>
       <c r="E8">
-        <v>16.41270293448153</v>
+        <v>30.16295003140155</v>
       </c>
       <c r="F8">
-        <v>18.18626524397519</v>
+        <v>24.22373356801236</v>
       </c>
       <c r="G8">
-        <v>21.60716863689971</v>
+        <v>35.9012188520833</v>
       </c>
       <c r="H8">
-        <v>10.60669544107147</v>
+        <v>9.213688181180588</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.11052099476146</v>
+        <v>19.95386594323653</v>
       </c>
       <c r="O8">
-        <v>15.4092615210346</v>
+        <v>18.54723507259014</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.9333151054759</v>
+        <v>7.965389323045747</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.336794265068324</v>
+        <v>2.257524162052197</v>
       </c>
       <c r="E9">
-        <v>18.83526645892429</v>
+        <v>35.53565962533064</v>
       </c>
       <c r="F9">
-        <v>19.42152583551522</v>
+        <v>28.34745798099243</v>
       </c>
       <c r="G9">
-        <v>24.19549305282739</v>
+        <v>42.05837224899967</v>
       </c>
       <c r="H9">
-        <v>10.78454097625027</v>
+        <v>10.41351275112119</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.79413998554022</v>
+        <v>21.92909527242059</v>
       </c>
       <c r="O9">
-        <v>16.16742811790309</v>
+        <v>21.73142598679816</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.080666255167973</v>
+        <v>8.566996749135566</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.341648870266802</v>
+        <v>2.340424227385183</v>
       </c>
       <c r="E10">
-        <v>20.51580639411464</v>
+        <v>39.22824871429451</v>
       </c>
       <c r="F10">
-        <v>20.30649208104569</v>
+        <v>31.13496510759985</v>
       </c>
       <c r="G10">
-        <v>25.95640391697248</v>
+        <v>46.22402828101346</v>
       </c>
       <c r="H10">
-        <v>10.92598972804872</v>
+        <v>11.44107768786063</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.2903645072747</v>
+        <v>23.28076484706839</v>
       </c>
       <c r="O10">
-        <v>16.72400890826519</v>
+        <v>23.8826423548355</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.14846916618764</v>
+        <v>8.868737088010043</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.344216520351163</v>
+        <v>2.379119748423768</v>
       </c>
       <c r="E11">
-        <v>21.23749084471423</v>
+        <v>40.86164182526893</v>
       </c>
       <c r="F11">
-        <v>20.70207008789831</v>
+        <v>32.35376212928512</v>
       </c>
       <c r="G11">
-        <v>26.72430725654529</v>
+        <v>48.04676179419457</v>
       </c>
       <c r="H11">
-        <v>10.99247610726923</v>
+        <v>11.89110708767762</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.51383106981896</v>
+        <v>23.87186472340126</v>
       </c>
       <c r="O11">
-        <v>16.97584131324049</v>
+        <v>24.82335668339963</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.17423166240809</v>
+        <v>8.980484619735558</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.345240104828057</v>
+        <v>2.393935072878421</v>
       </c>
       <c r="E12">
-        <v>21.50465745367265</v>
+        <v>41.47436071722513</v>
       </c>
       <c r="F12">
-        <v>20.85070168403498</v>
+        <v>32.80852459811591</v>
       </c>
       <c r="G12">
-        <v>27.01015662864143</v>
+        <v>48.72711522221348</v>
       </c>
       <c r="H12">
-        <v>11.01794236505454</v>
+        <v>12.05913950096484</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.59804885977592</v>
+        <v>24.09213181238058</v>
       </c>
       <c r="O12">
-        <v>17.07090818264913</v>
+        <v>25.17441048528586</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.168679758780518</v>
+        <v>8.956529331384107</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.345017383736601</v>
+        <v>2.390736723125324</v>
       </c>
       <c r="E13">
-        <v>21.44738995832763</v>
+        <v>41.34264413774066</v>
       </c>
       <c r="F13">
-        <v>20.81874541673822</v>
+        <v>32.71087897672281</v>
       </c>
       <c r="G13">
-        <v>26.94881594057337</v>
+        <v>48.58101927261097</v>
       </c>
       <c r="H13">
-        <v>11.01244518410014</v>
+        <v>12.02305462610473</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.57993023154881</v>
+        <v>24.04485425157805</v>
       </c>
       <c r="O13">
-        <v>17.05044857741606</v>
+        <v>25.09903017264229</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.150587055476443</v>
+        <v>8.877980916326832</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.344299706018385</v>
+        <v>2.380335224761687</v>
       </c>
       <c r="E14">
-        <v>21.25959324810564</v>
+        <v>40.91216166863577</v>
       </c>
       <c r="F14">
-        <v>20.71432231239457</v>
+        <v>32.39130943078843</v>
       </c>
       <c r="G14">
-        <v>26.74792412138484</v>
+        <v>48.10292962939939</v>
       </c>
       <c r="H14">
-        <v>10.99456554138558</v>
+        <v>11.90497823817983</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.52076825227033</v>
+        <v>23.89005854492977</v>
       </c>
       <c r="O14">
-        <v>16.98366902686251</v>
+        <v>24.85234010307486</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.139515373066374</v>
+        <v>8.829540801259919</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.343866772780879</v>
+        <v>2.373985838327769</v>
       </c>
       <c r="E15">
-        <v>21.14376642488964</v>
+        <v>40.6477495681749</v>
       </c>
       <c r="F15">
-        <v>20.65020392082526</v>
+        <v>32.19469231260058</v>
       </c>
       <c r="G15">
-        <v>26.62422428068378</v>
+        <v>47.8088161416468</v>
       </c>
       <c r="H15">
-        <v>10.98365086186756</v>
+        <v>11.83234646593346</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.48447494387068</v>
+        <v>23.79477278991585</v>
       </c>
       <c r="O15">
-        <v>16.94272308504471</v>
+        <v>24.7005701633387</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.076248655077</v>
+        <v>8.546924303489458</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.341488264673342</v>
+        <v>2.337916823552689</v>
       </c>
       <c r="E16">
-        <v>20.46778435323411</v>
+        <v>39.12063977260136</v>
       </c>
       <c r="F16">
-        <v>20.28048541154647</v>
+        <v>31.05434852460082</v>
       </c>
       <c r="G16">
-        <v>25.9055371870232</v>
+        <v>46.10349687584598</v>
       </c>
       <c r="H16">
-        <v>10.921686192136</v>
+        <v>11.41132664437742</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.27570805562915</v>
+        <v>23.24164318204573</v>
       </c>
       <c r="O16">
-        <v>16.70751495472316</v>
+        <v>23.82042474532409</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.037617191288184</v>
+        <v>8.376498625130688</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.340120871658005</v>
+        <v>2.316054643615762</v>
       </c>
       <c r="E17">
-        <v>20.04215383634661</v>
+        <v>38.17249920501028</v>
       </c>
       <c r="F17">
-        <v>20.05176529754235</v>
+        <v>30.34237880283521</v>
       </c>
       <c r="G17">
-        <v>25.45602378938278</v>
+        <v>45.03917876416299</v>
       </c>
       <c r="H17">
-        <v>10.88420815208812</v>
+        <v>11.14866417013891</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.14699881872644</v>
+        <v>22.89611080376316</v>
       </c>
       <c r="O17">
-        <v>16.56280069720605</v>
+        <v>23.27096516431289</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.01547150347373</v>
+        <v>8.291034355919761</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.339368223788723</v>
+        <v>2.303571160301851</v>
       </c>
       <c r="E18">
-        <v>19.79331164051828</v>
+        <v>37.62272973925779</v>
       </c>
       <c r="F18">
-        <v>19.91956150706805</v>
+        <v>29.92821543463626</v>
       </c>
       <c r="G18">
-        <v>25.19436406922753</v>
+        <v>44.42017666902687</v>
       </c>
       <c r="H18">
-        <v>10.86285440835427</v>
+        <v>10.99594023617808</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.07275961144546</v>
+        <v>22.69513864179607</v>
       </c>
       <c r="O18">
-        <v>16.47944270756341</v>
+        <v>22.95134644814264</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.00798681698601</v>
+        <v>8.261940017627015</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.339119213877821</v>
+        <v>2.299359566841261</v>
       </c>
       <c r="E19">
-        <v>19.70836458320055</v>
+        <v>37.4358032678893</v>
       </c>
       <c r="F19">
-        <v>19.87469300417116</v>
+        <v>29.78717810882447</v>
       </c>
       <c r="G19">
-        <v>25.10524197005105</v>
+        <v>44.20940485025155</v>
       </c>
       <c r="H19">
-        <v>10.85565975489246</v>
+        <v>10.94394421608378</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.04759001474569</v>
+        <v>22.62671469075644</v>
       </c>
       <c r="O19">
-        <v>16.45120130807218</v>
+        <v>22.84250567085699</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.041722081226251</v>
+        <v>8.392240843817188</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.340262933356617</v>
+        <v>2.31837235310783</v>
       </c>
       <c r="E20">
-        <v>20.08787984548762</v>
+        <v>38.27388244696785</v>
       </c>
       <c r="F20">
-        <v>20.07618141573258</v>
+        <v>30.41864906823042</v>
       </c>
       <c r="G20">
-        <v>25.50419863862297</v>
+        <v>45.15318108972114</v>
       </c>
       <c r="H20">
-        <v>10.88817691407267</v>
+        <v>11.1767947273596</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.16072234871258</v>
+        <v>22.93312538412439</v>
       </c>
       <c r="O20">
-        <v>16.57821917134406</v>
+        <v>23.32982513974612</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.155899150234847</v>
+        <v>8.901120589404213</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.344509117089792</v>
+        <v>2.383385801990121</v>
       </c>
       <c r="E21">
-        <v>21.31491949976721</v>
+        <v>41.03875504055188</v>
       </c>
       <c r="F21">
-        <v>20.74502673075174</v>
+        <v>32.4853557595773</v>
       </c>
       <c r="G21">
-        <v>26.80706618550222</v>
+        <v>48.24361975219639</v>
       </c>
       <c r="H21">
-        <v>10.99980952428328</v>
+        <v>11.93972378429002</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.53815713259456</v>
+        <v>23.93562375281778</v>
       </c>
       <c r="O21">
-        <v>17.00329262939363</v>
+        <v>24.92493703555135</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.23101661654694</v>
+        <v>9.221723313091555</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.347582896093313</v>
+        <v>2.426835124663542</v>
       </c>
       <c r="E22">
-        <v>22.08120714169245</v>
+        <v>42.81238247140244</v>
       </c>
       <c r="F22">
-        <v>21.17530009767951</v>
+        <v>33.79678858749871</v>
       </c>
       <c r="G22">
-        <v>27.62971804028947</v>
+        <v>50.20612434330764</v>
       </c>
       <c r="H22">
-        <v>11.07444526050048</v>
+        <v>12.42451617693132</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.78244317294325</v>
+        <v>24.56995441742191</v>
       </c>
       <c r="O22">
-        <v>17.27933077334015</v>
+        <v>25.9374278696955</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.190887495043029</v>
+        <v>9.05194560960326</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.345915169710971</v>
+        <v>2.403549218514421</v>
       </c>
       <c r="E23">
-        <v>21.67547574966455</v>
+        <v>41.86849899083176</v>
       </c>
       <c r="F23">
-        <v>20.94633133725022</v>
+        <v>33.10033093101026</v>
       </c>
       <c r="G23">
-        <v>27.1933421629898</v>
+        <v>49.16375132086888</v>
       </c>
       <c r="H23">
-        <v>11.03446353276845</v>
+        <v>12.16699370116515</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.65230661567175</v>
+        <v>24.23335248413409</v>
       </c>
       <c r="O23">
-        <v>17.13219820154773</v>
+        <v>25.39968849520772</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.039866059139561</v>
+        <v>8.385126792662909</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.340198602956081</v>
+        <v>2.317324252194368</v>
       </c>
       <c r="E24">
-        <v>20.06722001980257</v>
+        <v>38.22806169476728</v>
       </c>
       <c r="F24">
-        <v>20.06514508651015</v>
+        <v>30.38418238760741</v>
       </c>
       <c r="G24">
-        <v>25.48242883184161</v>
+        <v>45.10166282666611</v>
       </c>
       <c r="H24">
-        <v>10.8863820345403</v>
+        <v>11.16408225555713</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.15451869034855</v>
+        <v>22.91639831010815</v>
       </c>
       <c r="O24">
-        <v>16.57124896922864</v>
+        <v>23.30322617409372</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.879895846024697</v>
+        <v>7.745392391361781</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.33532750643249</v>
+        <v>2.227758591924867</v>
       </c>
       <c r="E25">
-        <v>18.1782030260668</v>
+        <v>34.12963562220377</v>
       </c>
       <c r="F25">
-        <v>19.09055749939816</v>
+        <v>27.27540407321635</v>
       </c>
       <c r="G25">
-        <v>23.51897299350291</v>
+        <v>40.45721875450867</v>
       </c>
       <c r="H25">
-        <v>10.73446794358163</v>
+        <v>10.041757576016</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.60992361498234</v>
+        <v>21.4113811208553</v>
       </c>
       <c r="O25">
-        <v>15.96195547730649</v>
+        <v>20.90398045560054</v>
       </c>
     </row>
   </sheetData>
